--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -764,7 +764,7 @@
         <v>0.95</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E8">
         <v>0.61</v>
@@ -773,7 +773,7 @@
         <v>0.47</v>
       </c>
       <c r="G8">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="H8">
         <v>0.63</v>
@@ -782,7 +782,7 @@
         <v>0.46</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -791,7 +791,7 @@
         <v>0.62</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="N8">
         <v>0.85</v>
@@ -800,7 +800,7 @@
         <v>0.78</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -816,7 +816,7 @@
         <v>0.84</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E9">
         <v>0.66</v>
@@ -825,7 +825,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G9">
-        <v>0.12</v>
+        <v>0.87</v>
       </c>
       <c r="H9">
         <v>0.71</v>
@@ -834,7 +834,7 @@
         <v>0.59</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="K9">
         <v>0.79</v>
@@ -843,7 +843,7 @@
         <v>0.7</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="N9">
         <v>0.84</v>
@@ -852,7 +852,7 @@
         <v>0.78</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10">

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,310 +598,310 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.63</v>
+        <v>0.03</v>
       </c>
       <c r="F5">
-        <v>0.53</v>
+        <v>0.02</v>
       </c>
       <c r="G5">
-        <v>0.76</v>
+        <v>0.12</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.89</v>
+        <v>0.26</v>
       </c>
       <c r="C6">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="D6">
-        <v>0.99</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.57</v>
+        <v>0.16</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="G6">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
       <c r="J6">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="K6">
-        <v>0.71</v>
+        <v>0.22</v>
       </c>
       <c r="L6">
-        <v>0.65</v>
+        <v>0.31</v>
       </c>
       <c r="M6">
-        <v>0.6899999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="N6">
-        <v>0.8100000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="O6">
-        <v>0.7</v>
+        <v>0.32</v>
       </c>
       <c r="P6">
-        <v>0.84</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="C7">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="D7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E7">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="F7">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="G7">
-        <v>0.47</v>
+        <v>0.76</v>
       </c>
       <c r="H7">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="I7">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="J7">
-        <v>0.39</v>
+        <v>0.73</v>
       </c>
       <c r="K7">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="L7">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="M7">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
       <c r="N7">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O7">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="P7">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C8">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="D8">
         <v>0.99</v>
       </c>
       <c r="E8">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="F8">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="H8">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I8">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="J8">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="L8">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="M8">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N8">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="P8">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C9">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="D9">
         <v>0.99</v>
       </c>
       <c r="E9">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="F9">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="G9">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="H9">
+        <v>0.49</v>
+      </c>
+      <c r="I9">
+        <v>0.51</v>
+      </c>
+      <c r="J9">
+        <v>0.39</v>
+      </c>
+      <c r="K9">
+        <v>0.64</v>
+      </c>
+      <c r="L9">
+        <v>0.62</v>
+      </c>
+      <c r="M9">
+        <v>0.55</v>
+      </c>
+      <c r="N9">
+        <v>0.79</v>
+      </c>
+      <c r="O9">
         <v>0.71</v>
       </c>
-      <c r="I9">
-        <v>0.59</v>
-      </c>
-      <c r="J9">
-        <v>0.86</v>
-      </c>
-      <c r="K9">
-        <v>0.79</v>
-      </c>
-      <c r="L9">
-        <v>0.7</v>
-      </c>
-      <c r="M9">
-        <v>0.92</v>
-      </c>
-      <c r="N9">
-        <v>0.84</v>
-      </c>
-      <c r="O9">
-        <v>0.78</v>
-      </c>
       <c r="P9">
-        <v>0.96</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C10">
+        <v>0.95</v>
+      </c>
+      <c r="D10">
+        <v>0.99</v>
+      </c>
+      <c r="E10">
+        <v>0.61</v>
+      </c>
+      <c r="F10">
+        <v>0.47</v>
+      </c>
+      <c r="G10">
+        <v>0.54</v>
+      </c>
+      <c r="H10">
+        <v>0.63</v>
+      </c>
+      <c r="I10">
+        <v>0.46</v>
+      </c>
+      <c r="J10">
+        <v>0.48</v>
+      </c>
+      <c r="K10">
+        <v>0.75</v>
+      </c>
+      <c r="L10">
+        <v>0.62</v>
+      </c>
+      <c r="M10">
         <v>0.65</v>
       </c>
-      <c r="D10">
-        <v>0.91</v>
-      </c>
-      <c r="E10">
-        <v>0.67</v>
-      </c>
-      <c r="F10">
-        <v>0.55</v>
-      </c>
-      <c r="G10">
-        <v>0.57</v>
-      </c>
-      <c r="H10">
-        <v>0.76</v>
-      </c>
-      <c r="I10">
-        <v>0.77</v>
-      </c>
-      <c r="J10">
-        <v>0.55</v>
-      </c>
-      <c r="K10">
-        <v>0.8</v>
-      </c>
-      <c r="L10">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="M10">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="N10">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="O10">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="P10">
         <v>0.8100000000000001</v>
@@ -910,156 +910,260 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="C11">
+        <v>0.84</v>
+      </c>
+      <c r="D11">
+        <v>0.99</v>
+      </c>
+      <c r="E11">
         <v>0.66</v>
       </c>
-      <c r="D11">
-        <v>0.89</v>
-      </c>
-      <c r="E11">
-        <v>0.43</v>
-      </c>
       <c r="F11">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G11">
+        <v>0.87</v>
+      </c>
+      <c r="H11">
+        <v>0.71</v>
+      </c>
+      <c r="I11">
+        <v>0.59</v>
+      </c>
+      <c r="J11">
+        <v>0.86</v>
+      </c>
+      <c r="K11">
+        <v>0.79</v>
+      </c>
+      <c r="L11">
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <v>0.92</v>
+      </c>
+      <c r="N11">
         <v>0.84</v>
       </c>
-      <c r="H11">
-        <v>0.51</v>
-      </c>
-      <c r="I11">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
-      </c>
-      <c r="K11">
-        <v>0.58</v>
-      </c>
-      <c r="L11">
-        <v>0.61</v>
-      </c>
-      <c r="M11">
-        <v>0.89</v>
-      </c>
-      <c r="N11">
-        <v>0.64</v>
-      </c>
       <c r="O11">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="P11">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="C12">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="D12">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E12">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="H12">
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="I12">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="J12">
-        <v>0.78</v>
+        <v>0.55</v>
       </c>
       <c r="K12">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M12">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N12">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="O12">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="P12">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="C13">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="D13">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="E13">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F13">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="G13">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="H13">
         <v>0.51</v>
       </c>
       <c r="I13">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.9</v>
+      </c>
+      <c r="K13">
+        <v>0.58</v>
+      </c>
+      <c r="L13">
+        <v>0.61</v>
+      </c>
+      <c r="M13">
+        <v>0.89</v>
+      </c>
+      <c r="N13">
+        <v>0.64</v>
+      </c>
+      <c r="O13">
+        <v>0.64</v>
+      </c>
+      <c r="P13">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+      <c r="C14">
+        <v>0.66</v>
+      </c>
+      <c r="D14">
+        <v>0.92</v>
+      </c>
+      <c r="E14">
+        <v>0.31</v>
+      </c>
+      <c r="F14">
+        <v>0.4</v>
+      </c>
+      <c r="G14">
+        <v>0.75</v>
+      </c>
+      <c r="H14">
+        <v>0.36</v>
+      </c>
+      <c r="I14">
+        <v>0.47</v>
+      </c>
+      <c r="J14">
+        <v>0.78</v>
+      </c>
+      <c r="K14">
+        <v>0.47</v>
+      </c>
+      <c r="L14">
+        <v>0.55</v>
+      </c>
+      <c r="M14">
+        <v>0.84</v>
+      </c>
+      <c r="N14">
+        <v>0.59</v>
+      </c>
+      <c r="O14">
+        <v>0.61</v>
+      </c>
+      <c r="P14">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.72</v>
+      </c>
+      <c r="C15">
+        <v>0.71</v>
+      </c>
+      <c r="D15">
+        <v>0.65</v>
+      </c>
+      <c r="E15">
+        <v>0.45</v>
+      </c>
+      <c r="F15">
+        <v>0.45</v>
+      </c>
+      <c r="G15">
+        <v>0.26</v>
+      </c>
+      <c r="H15">
+        <v>0.51</v>
+      </c>
+      <c r="I15">
         <v>0.5</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>0.15</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>0.6</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>0.58</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>0.24</v>
       </c>
-      <c r="N13">
+      <c r="N15">
         <v>0.66</v>
       </c>
-      <c r="O13">
+      <c r="O15">
         <v>0.65</v>
       </c>
-      <c r="P13">
+      <c r="P15">
         <v>0.38</v>
       </c>
     </row>

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -598,7 +598,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B5">
@@ -650,53 +650,53 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="E6">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F6">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="G6">
+        <v>0.34</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.22</v>
+      </c>
+      <c r="J6">
+        <v>0.31</v>
+      </c>
+      <c r="K6">
+        <v>0.14</v>
+      </c>
+      <c r="L6">
+        <v>0.29</v>
+      </c>
+      <c r="M6">
         <v>0.37</v>
       </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>0.3</v>
-      </c>
-      <c r="J6">
-        <v>0.43</v>
-      </c>
-      <c r="K6">
-        <v>0.22</v>
-      </c>
-      <c r="L6">
-        <v>0.31</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
+        <v>0.19</v>
+      </c>
+      <c r="O6">
+        <v>0.37</v>
+      </c>
+      <c r="P6">
         <v>0.42</v>
-      </c>
-      <c r="N6">
-        <v>0.24</v>
-      </c>
-      <c r="O6">
-        <v>0.32</v>
-      </c>
-      <c r="P6">
-        <v>0.41</v>
       </c>
     </row>
     <row r="7">

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -602,46 +602,46 @@
         </is>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>0.61</v>
       </c>
       <c r="F5">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="G5">
         <v>0.12</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="P5">
         <v>0</v>

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="C12">
+        <v>0.67</v>
+      </c>
+      <c r="D12">
+        <v>0.98</v>
+      </c>
+      <c r="E12">
         <v>0.65</v>
       </c>
-      <c r="D12">
-        <v>0.91</v>
-      </c>
-      <c r="E12">
-        <v>0.67</v>
-      </c>
       <c r="F12">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="G12">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="H12">
+        <v>0.71</v>
+      </c>
+      <c r="I12">
         <v>0.76</v>
       </c>
-      <c r="I12">
-        <v>0.77</v>
-      </c>
       <c r="J12">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="L12">
         <v>0.6899999999999999</v>
       </c>
       <c r="M12">
-        <v>0.6899999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="N12">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="O12">
         <v>0.67</v>
       </c>
       <c r="P12">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13">

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -452,7 +452,7 @@
         <v>0.95</v>
       </c>
       <c r="D2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0.61</v>
@@ -461,7 +461,7 @@
         <v>0.46</v>
       </c>
       <c r="G2">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="H2">
         <v>0.63</v>
@@ -470,7 +470,7 @@
         <v>0.46</v>
       </c>
       <c r="J2">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K2">
         <v>0.75</v>
@@ -479,7 +479,7 @@
         <v>0.61</v>
       </c>
       <c r="M2">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="N2">
         <v>0.85</v>
@@ -488,7 +488,7 @@
         <v>0.78</v>
       </c>
       <c r="P2">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         <v>0.86</v>
       </c>
       <c r="D3">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E3">
         <v>0.59</v>
@@ -513,7 +513,7 @@
         <v>0.48</v>
       </c>
       <c r="G3">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="H3">
         <v>0.64</v>
@@ -522,7 +522,7 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
         <v>0.73</v>
@@ -531,7 +531,7 @@
         <v>0.63</v>
       </c>
       <c r="M3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N3">
         <v>0.8100000000000001</v>
@@ -540,7 +540,7 @@
         <v>0.75</v>
       </c>
       <c r="P3">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>0.84</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E4">
         <v>0.51</v>
@@ -565,7 +565,7 @@
         <v>0.48</v>
       </c>
       <c r="G4">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="H4">
         <v>0.6</v>
@@ -574,7 +574,7 @@
         <v>0.52</v>
       </c>
       <c r="J4">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K4">
         <v>0.66</v>
@@ -583,7 +583,7 @@
         <v>0.63</v>
       </c>
       <c r="M4">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="N4">
         <v>0.71</v>
@@ -592,7 +592,7 @@
         <v>0.73</v>
       </c>
       <c r="P4">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +608,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0.61</v>
@@ -617,7 +617,7 @@
         <v>0.46</v>
       </c>
       <c r="G5">
-        <v>0.12</v>
+        <v>0.73</v>
       </c>
       <c r="H5">
         <v>0.63</v>
@@ -626,7 +626,7 @@
         <v>0.46</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K5">
         <v>0.75</v>
@@ -635,7 +635,7 @@
         <v>0.61</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N5">
         <v>0.85</v>
@@ -644,7 +644,7 @@
         <v>0.77</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -659,45 +659,30 @@
       <c r="C6">
         <v>0.48</v>
       </c>
-      <c r="D6">
-        <v>0.47</v>
-      </c>
       <c r="E6">
         <v>0.11</v>
       </c>
       <c r="F6">
         <v>0.19</v>
       </c>
-      <c r="G6">
-        <v>0.34</v>
-      </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6">
         <v>0.22</v>
       </c>
-      <c r="J6">
-        <v>0.31</v>
-      </c>
       <c r="K6">
         <v>0.14</v>
       </c>
       <c r="L6">
         <v>0.29</v>
       </c>
-      <c r="M6">
-        <v>0.37</v>
-      </c>
       <c r="N6">
         <v>0.19</v>
       </c>
       <c r="O6">
         <v>0.37</v>
       </c>
-      <c r="P6">
-        <v>0.42</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,7 +697,7 @@
         <v>0.68</v>
       </c>
       <c r="D7">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0.63</v>
@@ -721,7 +706,7 @@
         <v>0.53</v>
       </c>
       <c r="G7">
-        <v>0.76</v>
+        <v>0.15</v>
       </c>
       <c r="H7">
         <v>0.7</v>
@@ -730,7 +715,7 @@
         <v>0.7</v>
       </c>
       <c r="J7">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0.76</v>
@@ -739,7 +724,7 @@
         <v>0.68</v>
       </c>
       <c r="M7">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0.8100000000000001</v>
@@ -748,7 +733,7 @@
         <v>0.68</v>
       </c>
       <c r="P7">
-        <v>0.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +749,7 @@
         <v>0.74</v>
       </c>
       <c r="D8">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0.57</v>
@@ -773,7 +758,7 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>0.15</v>
       </c>
       <c r="H8">
         <v>0.6</v>
@@ -782,7 +767,7 @@
         <v>0.58</v>
       </c>
       <c r="J8">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0.71</v>
@@ -791,7 +776,7 @@
         <v>0.65</v>
       </c>
       <c r="M8">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0.8100000000000001</v>
@@ -800,7 +785,7 @@
         <v>0.7</v>
       </c>
       <c r="P8">
-        <v>0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -816,7 +801,7 @@
         <v>0.79</v>
       </c>
       <c r="D9">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.49</v>
@@ -825,7 +810,7 @@
         <v>0.47</v>
       </c>
       <c r="G9">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="H9">
         <v>0.49</v>
@@ -834,7 +819,7 @@
         <v>0.51</v>
       </c>
       <c r="J9">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0.64</v>
@@ -843,7 +828,7 @@
         <v>0.62</v>
       </c>
       <c r="M9">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0.79</v>
@@ -852,7 +837,7 @@
         <v>0.71</v>
       </c>
       <c r="P9">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -868,7 +853,7 @@
         <v>0.95</v>
       </c>
       <c r="D10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0.61</v>
@@ -877,7 +862,7 @@
         <v>0.47</v>
       </c>
       <c r="G10">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="H10">
         <v>0.63</v>
@@ -886,7 +871,7 @@
         <v>0.46</v>
       </c>
       <c r="J10">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="K10">
         <v>0.75</v>
@@ -895,7 +880,7 @@
         <v>0.62</v>
       </c>
       <c r="M10">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N10">
         <v>0.85</v>
@@ -904,7 +889,7 @@
         <v>0.78</v>
       </c>
       <c r="P10">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11">
@@ -920,7 +905,7 @@
         <v>0.84</v>
       </c>
       <c r="D11">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E11">
         <v>0.66</v>
@@ -929,7 +914,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G11">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="H11">
         <v>0.71</v>
@@ -938,7 +923,7 @@
         <v>0.59</v>
       </c>
       <c r="J11">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="K11">
         <v>0.79</v>
@@ -947,7 +932,7 @@
         <v>0.7</v>
       </c>
       <c r="M11">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="N11">
         <v>0.84</v>
@@ -956,7 +941,7 @@
         <v>0.78</v>
       </c>
       <c r="P11">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="12">
@@ -972,7 +957,7 @@
         <v>0.67</v>
       </c>
       <c r="D12">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="E12">
         <v>0.65</v>
@@ -981,7 +966,7 @@
         <v>0.54</v>
       </c>
       <c r="G12">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
       <c r="H12">
         <v>0.71</v>
@@ -990,7 +975,7 @@
         <v>0.76</v>
       </c>
       <c r="J12">
-        <v>0.85</v>
+        <v>0.29</v>
       </c>
       <c r="K12">
         <v>0.78</v>
@@ -999,7 +984,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="M12">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="N12">
         <v>0.83</v>
@@ -1008,7 +993,7 @@
         <v>0.67</v>
       </c>
       <c r="P12">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="13">
@@ -1024,7 +1009,7 @@
         <v>0.66</v>
       </c>
       <c r="D13">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E13">
         <v>0.43</v>
@@ -1033,7 +1018,7 @@
         <v>0.46</v>
       </c>
       <c r="G13">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0.51</v>
@@ -1042,7 +1027,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="J13">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="K13">
         <v>0.58</v>
@@ -1051,7 +1036,7 @@
         <v>0.61</v>
       </c>
       <c r="M13">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="N13">
         <v>0.64</v>
@@ -1060,7 +1045,7 @@
         <v>0.64</v>
       </c>
       <c r="P13">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14">
@@ -1076,7 +1061,7 @@
         <v>0.66</v>
       </c>
       <c r="D14">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E14">
         <v>0.31</v>
@@ -1085,7 +1070,7 @@
         <v>0.4</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="H14">
         <v>0.36</v>
@@ -1094,7 +1079,7 @@
         <v>0.47</v>
       </c>
       <c r="J14">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="K14">
         <v>0.47</v>
@@ -1103,7 +1088,7 @@
         <v>0.55</v>
       </c>
       <c r="M14">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="N14">
         <v>0.59</v>
@@ -1112,7 +1097,7 @@
         <v>0.61</v>
       </c>
       <c r="P14">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
@@ -1128,7 +1113,7 @@
         <v>0.71</v>
       </c>
       <c r="D15">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="E15">
         <v>0.45</v>
@@ -1137,7 +1122,7 @@
         <v>0.45</v>
       </c>
       <c r="G15">
-        <v>0.26</v>
+        <v>0.76</v>
       </c>
       <c r="H15">
         <v>0.51</v>
@@ -1146,7 +1131,7 @@
         <v>0.5</v>
       </c>
       <c r="J15">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="K15">
         <v>0.6</v>
@@ -1155,7 +1140,7 @@
         <v>0.58</v>
       </c>
       <c r="M15">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="N15">
         <v>0.66</v>
@@ -1164,7 +1149,7 @@
         <v>0.65</v>
       </c>
       <c r="P15">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -659,29 +659,44 @@
       <c r="C6">
         <v>0.48</v>
       </c>
+      <c r="D6">
+        <v>0.26</v>
+      </c>
       <c r="E6">
         <v>0.11</v>
       </c>
       <c r="F6">
         <v>0.19</v>
       </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6">
         <v>0.22</v>
       </c>
+      <c r="J6">
+        <v>0.18</v>
+      </c>
       <c r="K6">
         <v>0.14</v>
       </c>
       <c r="L6">
         <v>0.29</v>
       </c>
+      <c r="M6">
+        <v>0.21</v>
+      </c>
       <c r="N6">
         <v>0.19</v>
       </c>
       <c r="O6">
         <v>0.37</v>
+      </c>
+      <c r="P6">
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -461,7 +461,7 @@
         <v>0.46</v>
       </c>
       <c r="G2">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="H2">
         <v>0.63</v>
@@ -470,7 +470,7 @@
         <v>0.46</v>
       </c>
       <c r="J2">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="K2">
         <v>0.75</v>
@@ -479,7 +479,7 @@
         <v>0.61</v>
       </c>
       <c r="M2">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N2">
         <v>0.85</v>
@@ -488,7 +488,7 @@
         <v>0.78</v>
       </c>
       <c r="P2">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         <v>0.48</v>
       </c>
       <c r="G3">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="H3">
         <v>0.64</v>
@@ -531,7 +531,7 @@
         <v>0.63</v>
       </c>
       <c r="M3">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="N3">
         <v>0.8100000000000001</v>
@@ -565,7 +565,7 @@
         <v>0.48</v>
       </c>
       <c r="G4">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="H4">
         <v>0.6</v>
@@ -574,7 +574,7 @@
         <v>0.52</v>
       </c>
       <c r="J4">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K4">
         <v>0.66</v>
@@ -583,7 +583,7 @@
         <v>0.63</v>
       </c>
       <c r="M4">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="N4">
         <v>0.71</v>
@@ -617,7 +617,7 @@
         <v>0.46</v>
       </c>
       <c r="G5">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="H5">
         <v>0.63</v>
@@ -626,7 +626,7 @@
         <v>0.46</v>
       </c>
       <c r="J5">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="K5">
         <v>0.75</v>
@@ -635,7 +635,7 @@
         <v>0.61</v>
       </c>
       <c r="M5">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N5">
         <v>0.85</v>
@@ -712,7 +712,7 @@
         <v>0.68</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E7">
         <v>0.63</v>
@@ -721,7 +721,7 @@
         <v>0.53</v>
       </c>
       <c r="G7">
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="H7">
         <v>0.7</v>
@@ -730,7 +730,7 @@
         <v>0.7</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="K7">
         <v>0.76</v>
@@ -739,7 +739,7 @@
         <v>0.68</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="N7">
         <v>0.8100000000000001</v>
@@ -748,7 +748,7 @@
         <v>0.68</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +764,7 @@
         <v>0.74</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="E8">
         <v>0.57</v>
@@ -773,7 +773,7 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="H8">
         <v>0.6</v>
@@ -782,7 +782,7 @@
         <v>0.58</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="K8">
         <v>0.71</v>
@@ -791,7 +791,7 @@
         <v>0.65</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="N8">
         <v>0.8100000000000001</v>
@@ -800,7 +800,7 @@
         <v>0.7</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="9">
@@ -816,7 +816,7 @@
         <v>0.79</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="E9">
         <v>0.49</v>
@@ -825,7 +825,7 @@
         <v>0.47</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c r="H9">
         <v>0.49</v>
@@ -834,7 +834,7 @@
         <v>0.51</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="K9">
         <v>0.64</v>
@@ -843,7 +843,7 @@
         <v>0.62</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N9">
         <v>0.79</v>
@@ -852,7 +852,7 @@
         <v>0.71</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -877,7 +877,7 @@
         <v>0.47</v>
       </c>
       <c r="G10">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="H10">
         <v>0.63</v>
@@ -886,7 +886,7 @@
         <v>0.46</v>
       </c>
       <c r="J10">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="K10">
         <v>0.75</v>
@@ -895,7 +895,7 @@
         <v>0.62</v>
       </c>
       <c r="M10">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
         <v>0.85</v>
@@ -929,7 +929,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G11">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="H11">
         <v>0.71</v>
@@ -938,7 +938,7 @@
         <v>0.59</v>
       </c>
       <c r="J11">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="K11">
         <v>0.79</v>
@@ -1008,7 +1008,7 @@
         <v>0.67</v>
       </c>
       <c r="P12">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="13">
@@ -1033,7 +1033,7 @@
         <v>0.46</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="H13">
         <v>0.51</v>
@@ -1042,7 +1042,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="J13">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K13">
         <v>0.58</v>
@@ -1085,7 +1085,7 @@
         <v>0.4</v>
       </c>
       <c r="G14">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0.36</v>
@@ -1094,7 +1094,7 @@
         <v>0.47</v>
       </c>
       <c r="J14">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="K14">
         <v>0.47</v>
@@ -1137,7 +1137,7 @@
         <v>0.45</v>
       </c>
       <c r="G15">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="H15">
         <v>0.51</v>
@@ -1146,7 +1146,7 @@
         <v>0.5</v>
       </c>
       <c r="J15">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K15">
         <v>0.6</v>

--- a/results/tables/Overview_F1_table.xlsx
+++ b/results/tables/Overview_F1_table.xlsx
@@ -452,7 +452,7 @@
         <v>0.95</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E2">
         <v>0.61</v>
@@ -461,7 +461,7 @@
         <v>0.46</v>
       </c>
       <c r="G2">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="H2">
         <v>0.63</v>
@@ -470,7 +470,7 @@
         <v>0.46</v>
       </c>
       <c r="J2">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="K2">
         <v>0.75</v>
@@ -479,7 +479,7 @@
         <v>0.61</v>
       </c>
       <c r="M2">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="N2">
         <v>0.85</v>
@@ -488,7 +488,7 @@
         <v>0.78</v>
       </c>
       <c r="P2">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         <v>0.86</v>
       </c>
       <c r="D3">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E3">
         <v>0.59</v>
@@ -513,7 +513,7 @@
         <v>0.48</v>
       </c>
       <c r="G3">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="H3">
         <v>0.64</v>
@@ -522,7 +522,7 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K3">
         <v>0.73</v>
@@ -531,7 +531,7 @@
         <v>0.63</v>
       </c>
       <c r="M3">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N3">
         <v>0.8100000000000001</v>
@@ -540,7 +540,7 @@
         <v>0.75</v>
       </c>
       <c r="P3">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>0.84</v>
       </c>
       <c r="D4">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E4">
         <v>0.51</v>
@@ -565,7 +565,7 @@
         <v>0.48</v>
       </c>
       <c r="G4">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H4">
         <v>0.6</v>
@@ -574,7 +574,7 @@
         <v>0.52</v>
       </c>
       <c r="J4">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="K4">
         <v>0.66</v>
@@ -583,7 +583,7 @@
         <v>0.63</v>
       </c>
       <c r="M4">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="N4">
         <v>0.71</v>
@@ -592,7 +592,7 @@
         <v>0.73</v>
       </c>
       <c r="P4">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +608,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E5">
         <v>0.61</v>
@@ -617,7 +617,7 @@
         <v>0.46</v>
       </c>
       <c r="G5">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="H5">
         <v>0.63</v>
@@ -626,7 +626,7 @@
         <v>0.46</v>
       </c>
       <c r="J5">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="K5">
         <v>0.75</v>
@@ -635,7 +635,7 @@
         <v>0.61</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="N5">
         <v>0.85</v>
@@ -644,7 +644,7 @@
         <v>0.77</v>
       </c>
       <c r="P5">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -660,7 +660,7 @@
         <v>0.48</v>
       </c>
       <c r="D6">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="E6">
         <v>0.11</v>
@@ -669,7 +669,7 @@
         <v>0.19</v>
       </c>
       <c r="G6">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -678,7 +678,7 @@
         <v>0.22</v>
       </c>
       <c r="J6">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0.14</v>
@@ -687,7 +687,7 @@
         <v>0.29</v>
       </c>
       <c r="M6">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="N6">
         <v>0.19</v>
@@ -696,7 +696,7 @@
         <v>0.37</v>
       </c>
       <c r="P6">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -712,7 +712,7 @@
         <v>0.68</v>
       </c>
       <c r="D7">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E7">
         <v>0.63</v>
@@ -721,7 +721,7 @@
         <v>0.53</v>
       </c>
       <c r="G7">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="H7">
         <v>0.7</v>
@@ -730,7 +730,7 @@
         <v>0.7</v>
       </c>
       <c r="J7">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="K7">
         <v>0.76</v>
@@ -739,7 +739,7 @@
         <v>0.68</v>
       </c>
       <c r="M7">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="N7">
         <v>0.8100000000000001</v>
@@ -748,7 +748,7 @@
         <v>0.68</v>
       </c>
       <c r="P7">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +764,7 @@
         <v>0.74</v>
       </c>
       <c r="D8">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E8">
         <v>0.57</v>
@@ -773,7 +773,7 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="H8">
         <v>0.6</v>
@@ -782,7 +782,7 @@
         <v>0.58</v>
       </c>
       <c r="J8">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="K8">
         <v>0.71</v>
@@ -791,7 +791,7 @@
         <v>0.65</v>
       </c>
       <c r="M8">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="N8">
         <v>0.8100000000000001</v>
@@ -800,7 +800,7 @@
         <v>0.7</v>
       </c>
       <c r="P8">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9">
@@ -816,7 +816,7 @@
         <v>0.79</v>
       </c>
       <c r="D9">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="E9">
         <v>0.49</v>
@@ -834,7 +834,7 @@
         <v>0.51</v>
       </c>
       <c r="J9">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="K9">
         <v>0.64</v>
@@ -843,7 +843,7 @@
         <v>0.62</v>
       </c>
       <c r="M9">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="N9">
         <v>0.79</v>
@@ -852,7 +852,7 @@
         <v>0.71</v>
       </c>
       <c r="P9">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="10">
@@ -868,7 +868,7 @@
         <v>0.95</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E10">
         <v>0.61</v>
@@ -877,7 +877,7 @@
         <v>0.47</v>
       </c>
       <c r="G10">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="H10">
         <v>0.63</v>
@@ -886,7 +886,7 @@
         <v>0.46</v>
       </c>
       <c r="J10">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="K10">
         <v>0.75</v>
@@ -895,7 +895,7 @@
         <v>0.62</v>
       </c>
       <c r="M10">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="N10">
         <v>0.85</v>
@@ -904,7 +904,7 @@
         <v>0.78</v>
       </c>
       <c r="P10">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="11">
@@ -929,7 +929,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G11">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H11">
         <v>0.71</v>
@@ -938,7 +938,7 @@
         <v>0.59</v>
       </c>
       <c r="J11">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="K11">
         <v>0.79</v>
@@ -947,7 +947,7 @@
         <v>0.7</v>
       </c>
       <c r="M11">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="N11">
         <v>0.84</v>
@@ -956,7 +956,7 @@
         <v>0.78</v>
       </c>
       <c r="P11">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="12">
@@ -972,7 +972,7 @@
         <v>0.67</v>
       </c>
       <c r="D12">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="E12">
         <v>0.65</v>
@@ -990,7 +990,7 @@
         <v>0.76</v>
       </c>
       <c r="J12">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="K12">
         <v>0.78</v>
@@ -999,7 +999,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="M12">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="N12">
         <v>0.83</v>
@@ -1008,7 +1008,7 @@
         <v>0.67</v>
       </c>
       <c r="P12">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13">
@@ -1024,7 +1024,7 @@
         <v>0.66</v>
       </c>
       <c r="D13">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E13">
         <v>0.43</v>
@@ -1033,7 +1033,7 @@
         <v>0.46</v>
       </c>
       <c r="G13">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="H13">
         <v>0.51</v>
@@ -1042,7 +1042,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="J13">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="K13">
         <v>0.58</v>
@@ -1051,7 +1051,7 @@
         <v>0.61</v>
       </c>
       <c r="M13">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="N13">
         <v>0.64</v>
@@ -1060,7 +1060,7 @@
         <v>0.64</v>
       </c>
       <c r="P13">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="14">
@@ -1076,7 +1076,7 @@
         <v>0.66</v>
       </c>
       <c r="D14">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="E14">
         <v>0.31</v>
@@ -1085,7 +1085,7 @@
         <v>0.4</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="H14">
         <v>0.36</v>
@@ -1094,7 +1094,7 @@
         <v>0.47</v>
       </c>
       <c r="J14">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="K14">
         <v>0.47</v>
@@ -1103,7 +1103,7 @@
         <v>0.55</v>
       </c>
       <c r="M14">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="N14">
         <v>0.59</v>
@@ -1112,7 +1112,7 @@
         <v>0.61</v>
       </c>
       <c r="P14">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="15">
@@ -1128,7 +1128,7 @@
         <v>0.71</v>
       </c>
       <c r="D15">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="E15">
         <v>0.45</v>
@@ -1137,7 +1137,7 @@
         <v>0.45</v>
       </c>
       <c r="G15">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H15">
         <v>0.51</v>
@@ -1146,7 +1146,7 @@
         <v>0.5</v>
       </c>
       <c r="J15">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="K15">
         <v>0.6</v>
@@ -1155,7 +1155,7 @@
         <v>0.58</v>
       </c>
       <c r="M15">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="N15">
         <v>0.66</v>
@@ -1164,7 +1164,7 @@
         <v>0.65</v>
       </c>
       <c r="P15">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
